--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Timp1-Cd63.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Timp1-Cd63.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.89324424035421</v>
+        <v>10.32218766666667</v>
       </c>
       <c r="H2">
-        <v>8.89324424035421</v>
+        <v>30.966563</v>
       </c>
       <c r="I2">
-        <v>0.06251695617857206</v>
+        <v>0.06849540241430999</v>
       </c>
       <c r="J2">
-        <v>0.06251695617857206</v>
+        <v>0.06849540241431</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.2269480458689</v>
+        <v>22.865525</v>
       </c>
       <c r="N2">
-        <v>21.2269480458689</v>
+        <v>68.596575</v>
       </c>
       <c r="O2">
-        <v>0.03210123950619275</v>
+        <v>0.03261667889402277</v>
       </c>
       <c r="P2">
-        <v>0.03210123950619275</v>
+        <v>0.03261667889402277</v>
       </c>
       <c r="Q2">
-        <v>188.7764334492217</v>
+        <v>236.0222401468583</v>
       </c>
       <c r="R2">
-        <v>188.7764334492217</v>
+        <v>2124.200161321725</v>
       </c>
       <c r="S2">
-        <v>0.002006871783486498</v>
+        <v>0.002234092546264421</v>
       </c>
       <c r="T2">
-        <v>0.002006871783486498</v>
+        <v>0.002234092546264421</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.89324424035421</v>
+        <v>10.32218766666667</v>
       </c>
       <c r="H3">
-        <v>8.89324424035421</v>
+        <v>30.966563</v>
       </c>
       <c r="I3">
-        <v>0.06251695617857206</v>
+        <v>0.06849540241430999</v>
       </c>
       <c r="J3">
-        <v>0.06251695617857206</v>
+        <v>0.06849540241431</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>226.800654288099</v>
+        <v>227.1285753333333</v>
       </c>
       <c r="N3">
-        <v>226.800654288099</v>
+        <v>681.385726</v>
       </c>
       <c r="O3">
-        <v>0.3429877016578652</v>
+        <v>0.3239890537962366</v>
       </c>
       <c r="P3">
-        <v>0.3429877016578652</v>
+        <v>0.3239890537962366</v>
       </c>
       <c r="Q3">
-        <v>2016.993612456203</v>
+        <v>2344.463779053304</v>
       </c>
       <c r="R3">
-        <v>2016.993612456203</v>
+        <v>21100.17401147974</v>
       </c>
       <c r="S3">
-        <v>0.02144254711433391</v>
+        <v>0.02219176061760475</v>
       </c>
       <c r="T3">
-        <v>0.02144254711433391</v>
+        <v>0.02219176061760476</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.89324424035421</v>
+        <v>10.32218766666667</v>
       </c>
       <c r="H4">
-        <v>8.89324424035421</v>
+        <v>30.966563</v>
       </c>
       <c r="I4">
-        <v>0.06251695617857206</v>
+        <v>0.06849540241430999</v>
       </c>
       <c r="J4">
-        <v>0.06251695617857206</v>
+        <v>0.06849540241431</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>207.38564401741</v>
+        <v>207.8383993333333</v>
       </c>
       <c r="N4">
-        <v>207.38564401741</v>
+        <v>623.5151979999999</v>
       </c>
       <c r="O4">
-        <v>0.3136266322583538</v>
+        <v>0.2964724550563789</v>
       </c>
       <c r="P4">
-        <v>0.3136266322583538</v>
+        <v>0.2964724550563789</v>
       </c>
       <c r="Q4">
-        <v>1844.33118418998</v>
+        <v>2145.346962258275</v>
       </c>
       <c r="R4">
-        <v>1844.33118418998</v>
+        <v>19308.12266032447</v>
       </c>
       <c r="S4">
-        <v>0.01960698242532864</v>
+        <v>0.02030700011384511</v>
       </c>
       <c r="T4">
-        <v>0.01960698242532864</v>
+        <v>0.02030700011384511</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.89324424035421</v>
+        <v>10.32218766666667</v>
       </c>
       <c r="H5">
-        <v>8.89324424035421</v>
+        <v>30.966563</v>
       </c>
       <c r="I5">
-        <v>0.06251695617857206</v>
+        <v>0.06849540241430999</v>
       </c>
       <c r="J5">
-        <v>0.06251695617857206</v>
+        <v>0.06849540241431</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>114.998883476107</v>
+        <v>145.4707516666666</v>
       </c>
       <c r="N5">
-        <v>114.998883476107</v>
+        <v>436.412255</v>
       </c>
       <c r="O5">
-        <v>0.1739113269337703</v>
+        <v>0.2075077128377238</v>
       </c>
       <c r="P5">
-        <v>0.1739113269337703</v>
+        <v>0.2075077128377237</v>
       </c>
       <c r="Q5">
-        <v>1022.713158121054</v>
+        <v>1501.576398714396</v>
       </c>
       <c r="R5">
-        <v>1022.713158121054</v>
+        <v>13514.18758842956</v>
       </c>
       <c r="S5">
-        <v>0.01087240680487583</v>
+        <v>0.01421332429489297</v>
       </c>
       <c r="T5">
-        <v>0.01087240680487583</v>
+        <v>0.01421332429489297</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.89324424035421</v>
+        <v>10.32218766666667</v>
       </c>
       <c r="H6">
-        <v>8.89324424035421</v>
+        <v>30.966563</v>
       </c>
       <c r="I6">
-        <v>0.06251695617857206</v>
+        <v>0.06849540241430999</v>
       </c>
       <c r="J6">
-        <v>0.06251695617857206</v>
+        <v>0.06849540241431</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>90.83797678518791</v>
+        <v>97.73455433333334</v>
       </c>
       <c r="N6">
-        <v>90.83797678518791</v>
+        <v>293.203663</v>
       </c>
       <c r="O6">
-        <v>0.1373730996438179</v>
+        <v>0.139414099415638</v>
       </c>
       <c r="P6">
-        <v>0.1373730996438179</v>
+        <v>0.1394140994156379</v>
       </c>
       <c r="Q6">
-        <v>807.8443138503018</v>
+        <v>1008.834411346697</v>
       </c>
       <c r="R6">
-        <v>807.8443138503018</v>
+        <v>9079.509702120269</v>
       </c>
       <c r="S6">
-        <v>0.008588148050547176</v>
+        <v>0.009549224841702741</v>
       </c>
       <c r="T6">
-        <v>0.008588148050547176</v>
+        <v>0.009549224841702741</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>94.7661177080155</v>
+        <v>95.45368733333333</v>
       </c>
       <c r="H7">
-        <v>94.7661177080155</v>
+        <v>286.361062</v>
       </c>
       <c r="I7">
-        <v>0.6661786259149719</v>
+        <v>0.6334063027104161</v>
       </c>
       <c r="J7">
-        <v>0.6661786259149719</v>
+        <v>0.6334063027104162</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.2269480458689</v>
+        <v>22.865525</v>
       </c>
       <c r="N7">
-        <v>21.2269480458689</v>
+        <v>68.596575</v>
       </c>
       <c r="O7">
-        <v>0.03210123950619275</v>
+        <v>0.03261667889402277</v>
       </c>
       <c r="P7">
-        <v>0.03210123950619275</v>
+        <v>0.03261667889402277</v>
       </c>
       <c r="Q7">
-        <v>2011.595457096742</v>
+        <v>2182.598674062517</v>
       </c>
       <c r="R7">
-        <v>2011.595457096742</v>
+        <v>19643.38806656265</v>
       </c>
       <c r="S7">
-        <v>0.0213851596244029</v>
+        <v>0.02065960998495582</v>
       </c>
       <c r="T7">
-        <v>0.0213851596244029</v>
+        <v>0.02065960998495583</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>94.7661177080155</v>
+        <v>95.45368733333333</v>
       </c>
       <c r="H8">
-        <v>94.7661177080155</v>
+        <v>286.361062</v>
       </c>
       <c r="I8">
-        <v>0.6661786259149719</v>
+        <v>0.6334063027104161</v>
       </c>
       <c r="J8">
-        <v>0.6661786259149719</v>
+        <v>0.6334063027104162</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>226.800654288099</v>
+        <v>227.1285753333333</v>
       </c>
       <c r="N8">
-        <v>226.800654288099</v>
+        <v>681.385726</v>
       </c>
       <c r="O8">
-        <v>0.3429877016578652</v>
+        <v>0.3239890537962366</v>
       </c>
       <c r="P8">
-        <v>0.3429877016578652</v>
+        <v>0.3239890537962366</v>
       </c>
       <c r="Q8">
-        <v>21493.01750052092</v>
+        <v>21680.26001433345</v>
       </c>
       <c r="R8">
-        <v>21493.01750052092</v>
+        <v>195122.340129001</v>
       </c>
       <c r="S8">
-        <v>0.228491075796171</v>
+        <v>0.2052167086837203</v>
       </c>
       <c r="T8">
-        <v>0.228491075796171</v>
+        <v>0.2052167086837204</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>94.7661177080155</v>
+        <v>95.45368733333333</v>
       </c>
       <c r="H9">
-        <v>94.7661177080155</v>
+        <v>286.361062</v>
       </c>
       <c r="I9">
-        <v>0.6661786259149719</v>
+        <v>0.6334063027104161</v>
       </c>
       <c r="J9">
-        <v>0.6661786259149719</v>
+        <v>0.6334063027104162</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>207.38564401741</v>
+        <v>207.8383993333333</v>
       </c>
       <c r="N9">
-        <v>207.38564401741</v>
+        <v>623.5151979999999</v>
       </c>
       <c r="O9">
-        <v>0.3136266322583538</v>
+        <v>0.2964724550563789</v>
       </c>
       <c r="P9">
-        <v>0.3136266322583538</v>
+        <v>0.2964724550563789</v>
       </c>
       <c r="Q9">
-        <v>19653.13235190648</v>
+        <v>19838.94158582447</v>
       </c>
       <c r="R9">
-        <v>19653.13235190648</v>
+        <v>178550.4742724203</v>
       </c>
       <c r="S9">
-        <v>0.2089313589282103</v>
+        <v>0.187787521612741</v>
       </c>
       <c r="T9">
-        <v>0.2089313589282103</v>
+        <v>0.187787521612741</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>94.7661177080155</v>
+        <v>95.45368733333333</v>
       </c>
       <c r="H10">
-        <v>94.7661177080155</v>
+        <v>286.361062</v>
       </c>
       <c r="I10">
-        <v>0.6661786259149719</v>
+        <v>0.6334063027104161</v>
       </c>
       <c r="J10">
-        <v>0.6661786259149719</v>
+        <v>0.6334063027104162</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>114.998883476107</v>
+        <v>145.4707516666666</v>
       </c>
       <c r="N10">
-        <v>114.998883476107</v>
+        <v>436.412255</v>
       </c>
       <c r="O10">
-        <v>0.1739113269337703</v>
+        <v>0.2075077128377238</v>
       </c>
       <c r="P10">
-        <v>0.1739113269337703</v>
+        <v>0.2075077128377237</v>
       </c>
       <c r="Q10">
-        <v>10897.99772778711</v>
+        <v>13885.71964573498</v>
       </c>
       <c r="R10">
-        <v>10897.99772778711</v>
+        <v>124971.4768116148</v>
       </c>
       <c r="S10">
-        <v>0.1158560088077885</v>
+        <v>0.1314366931724374</v>
       </c>
       <c r="T10">
-        <v>0.1158560088077885</v>
+        <v>0.1314366931724374</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>94.7661177080155</v>
+        <v>95.45368733333333</v>
       </c>
       <c r="H11">
-        <v>94.7661177080155</v>
+        <v>286.361062</v>
       </c>
       <c r="I11">
-        <v>0.6661786259149719</v>
+        <v>0.6334063027104161</v>
       </c>
       <c r="J11">
-        <v>0.6661786259149719</v>
+        <v>0.6334063027104162</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>90.83797678518791</v>
+        <v>97.73455433333334</v>
       </c>
       <c r="N11">
-        <v>90.83797678518791</v>
+        <v>293.203663</v>
       </c>
       <c r="O11">
-        <v>0.1373730996438179</v>
+        <v>0.139414099415638</v>
       </c>
       <c r="P11">
-        <v>0.1373730996438179</v>
+        <v>0.1394140994156379</v>
       </c>
       <c r="Q11">
-        <v>8608.362400383097</v>
+        <v>9329.123590996678</v>
       </c>
       <c r="R11">
-        <v>8608.362400383097</v>
+        <v>83962.1123189701</v>
       </c>
       <c r="S11">
-        <v>0.09151502275839911</v>
+        <v>0.08830576925656161</v>
       </c>
       <c r="T11">
-        <v>0.09151502275839911</v>
+        <v>0.08830576925656161</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.2636127823432</v>
+        <v>12.69470766666667</v>
       </c>
       <c r="H12">
-        <v>12.2636127823432</v>
+        <v>38.084123</v>
       </c>
       <c r="I12">
-        <v>0.08620968031281569</v>
+        <v>0.08423883950185489</v>
       </c>
       <c r="J12">
-        <v>0.08620968031281569</v>
+        <v>0.08423883950185491</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.2269480458689</v>
+        <v>22.865525</v>
       </c>
       <c r="N12">
-        <v>21.2269480458689</v>
+        <v>68.596575</v>
       </c>
       <c r="O12">
-        <v>0.03210123950619275</v>
+        <v>0.03261667889402277</v>
       </c>
       <c r="P12">
-        <v>0.03210123950619275</v>
+        <v>0.03261667889402277</v>
       </c>
       <c r="Q12">
-        <v>260.3190713854529</v>
+        <v>290.2711555198583</v>
       </c>
       <c r="R12">
-        <v>260.3190713854529</v>
+        <v>2612.440399678725</v>
       </c>
       <c r="S12">
-        <v>0.002767437595474006</v>
+        <v>0.002747591178437122</v>
       </c>
       <c r="T12">
-        <v>0.002767437595474006</v>
+        <v>0.002747591178437122</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.2636127823432</v>
+        <v>12.69470766666667</v>
       </c>
       <c r="H13">
-        <v>12.2636127823432</v>
+        <v>38.084123</v>
       </c>
       <c r="I13">
-        <v>0.08620968031281569</v>
+        <v>0.08423883950185489</v>
       </c>
       <c r="J13">
-        <v>0.08620968031281569</v>
+        <v>0.08423883950185491</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>226.800654288099</v>
+        <v>227.1285753333333</v>
       </c>
       <c r="N13">
-        <v>226.800654288099</v>
+        <v>681.385726</v>
       </c>
       <c r="O13">
-        <v>0.3429877016578652</v>
+        <v>0.3239890537962366</v>
       </c>
       <c r="P13">
-        <v>0.3429877016578652</v>
+        <v>0.3239890537962366</v>
       </c>
       <c r="Q13">
-        <v>2781.395402971332</v>
+        <v>2883.330866603144</v>
       </c>
       <c r="R13">
-        <v>2781.395402971332</v>
+        <v>25949.9777994283</v>
       </c>
       <c r="S13">
-        <v>0.02956886011115196</v>
+        <v>0.027292461903099</v>
       </c>
       <c r="T13">
-        <v>0.02956886011115196</v>
+        <v>0.02729246190309901</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.2636127823432</v>
+        <v>12.69470766666667</v>
       </c>
       <c r="H14">
-        <v>12.2636127823432</v>
+        <v>38.084123</v>
       </c>
       <c r="I14">
-        <v>0.08620968031281569</v>
+        <v>0.08423883950185489</v>
       </c>
       <c r="J14">
-        <v>0.08620968031281569</v>
+        <v>0.08423883950185491</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>207.38564401741</v>
+        <v>207.8383993333333</v>
       </c>
       <c r="N14">
-        <v>207.38564401741</v>
+        <v>623.5151979999999</v>
       </c>
       <c r="O14">
-        <v>0.3136266322583538</v>
+        <v>0.2964724550563789</v>
       </c>
       <c r="P14">
-        <v>0.3136266322583538</v>
+        <v>0.2964724550563789</v>
       </c>
       <c r="Q14">
-        <v>2543.297234846386</v>
+        <v>2638.447721444595</v>
       </c>
       <c r="R14">
-        <v>2543.297234846386</v>
+        <v>23746.02949300135</v>
       </c>
       <c r="S14">
-        <v>0.02703765170457769</v>
+        <v>0.02497449555821519</v>
       </c>
       <c r="T14">
-        <v>0.02703765170457769</v>
+        <v>0.0249744955582152</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.2636127823432</v>
+        <v>12.69470766666667</v>
       </c>
       <c r="H15">
-        <v>12.2636127823432</v>
+        <v>38.084123</v>
       </c>
       <c r="I15">
-        <v>0.08620968031281569</v>
+        <v>0.08423883950185489</v>
       </c>
       <c r="J15">
-        <v>0.08620968031281569</v>
+        <v>0.08423883950185491</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>114.998883476107</v>
+        <v>145.4707516666666</v>
       </c>
       <c r="N15">
-        <v>114.998883476107</v>
+        <v>436.412255</v>
       </c>
       <c r="O15">
-        <v>0.1739113269337703</v>
+        <v>0.2075077128377238</v>
       </c>
       <c r="P15">
-        <v>0.1739113269337703</v>
+        <v>0.2075077128377237</v>
       </c>
       <c r="Q15">
-        <v>1410.301777352782</v>
+        <v>1846.708666458596</v>
       </c>
       <c r="R15">
-        <v>1410.301777352782</v>
+        <v>16620.37799812736</v>
       </c>
       <c r="S15">
-        <v>0.01499283989773791</v>
+        <v>0.017480208917134</v>
       </c>
       <c r="T15">
-        <v>0.01499283989773791</v>
+        <v>0.01748020891713401</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.2636127823432</v>
+        <v>12.69470766666667</v>
       </c>
       <c r="H16">
-        <v>12.2636127823432</v>
+        <v>38.084123</v>
       </c>
       <c r="I16">
-        <v>0.08620968031281569</v>
+        <v>0.08423883950185489</v>
       </c>
       <c r="J16">
-        <v>0.08620968031281569</v>
+        <v>0.08423883950185491</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>90.83797678518791</v>
+        <v>97.73455433333334</v>
       </c>
       <c r="N16">
-        <v>90.83797678518791</v>
+        <v>293.203663</v>
       </c>
       <c r="O16">
-        <v>0.1373730996438179</v>
+        <v>0.139414099415638</v>
       </c>
       <c r="P16">
-        <v>0.1373730996438179</v>
+        <v>0.1394140994156379</v>
       </c>
       <c r="Q16">
-        <v>1114.001773225025</v>
+        <v>1240.711596193617</v>
       </c>
       <c r="R16">
-        <v>1114.001773225025</v>
+        <v>11166.40436574255</v>
       </c>
       <c r="S16">
-        <v>0.01184289100387411</v>
+        <v>0.01174408194496957</v>
       </c>
       <c r="T16">
-        <v>0.01184289100387411</v>
+        <v>0.01174408194496957</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.30118488201158</v>
+        <v>9.985757666666666</v>
       </c>
       <c r="H17">
-        <v>6.30118488201158</v>
+        <v>29.957273</v>
       </c>
       <c r="I17">
-        <v>0.04429552236452563</v>
+        <v>0.06626293881469322</v>
       </c>
       <c r="J17">
-        <v>0.04429552236452563</v>
+        <v>0.06626293881469324</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.2269480458689</v>
+        <v>22.865525</v>
       </c>
       <c r="N17">
-        <v>21.2269480458689</v>
+        <v>68.596575</v>
       </c>
       <c r="O17">
-        <v>0.03210123950619275</v>
+        <v>0.03261667889402277</v>
       </c>
       <c r="P17">
-        <v>0.03210123950619275</v>
+        <v>0.03261667889402277</v>
       </c>
       <c r="Q17">
-        <v>133.7549241178744</v>
+        <v>228.3295915711084</v>
       </c>
       <c r="R17">
-        <v>133.7549241178744</v>
+        <v>2054.966324139975</v>
       </c>
       <c r="S17">
-        <v>0.001421941172475555</v>
+        <v>0.002161276997893126</v>
       </c>
       <c r="T17">
-        <v>0.001421941172475555</v>
+        <v>0.002161276997893127</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.30118488201158</v>
+        <v>9.985757666666666</v>
       </c>
       <c r="H18">
-        <v>6.30118488201158</v>
+        <v>29.957273</v>
       </c>
       <c r="I18">
-        <v>0.04429552236452563</v>
+        <v>0.06626293881469322</v>
       </c>
       <c r="J18">
-        <v>0.04429552236452563</v>
+        <v>0.06626293881469324</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>226.800654288099</v>
+        <v>227.1285753333333</v>
       </c>
       <c r="N18">
-        <v>226.800654288099</v>
+        <v>681.385726</v>
       </c>
       <c r="O18">
-        <v>0.3429877016578652</v>
+        <v>0.3239890537962366</v>
       </c>
       <c r="P18">
-        <v>0.3429877016578652</v>
+        <v>0.3239890537962366</v>
       </c>
       <c r="Q18">
-        <v>1429.112854030504</v>
+        <v>2268.050912453911</v>
       </c>
       <c r="R18">
-        <v>1429.112854030504</v>
+        <v>20412.4582120852</v>
       </c>
       <c r="S18">
-        <v>0.01519281940954321</v>
+        <v>0.02146846684833038</v>
       </c>
       <c r="T18">
-        <v>0.01519281940954321</v>
+        <v>0.02146846684833038</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.30118488201158</v>
+        <v>9.985757666666666</v>
       </c>
       <c r="H19">
-        <v>6.30118488201158</v>
+        <v>29.957273</v>
       </c>
       <c r="I19">
-        <v>0.04429552236452563</v>
+        <v>0.06626293881469322</v>
       </c>
       <c r="J19">
-        <v>0.04429552236452563</v>
+        <v>0.06626293881469324</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>207.38564401741</v>
+        <v>207.8383993333333</v>
       </c>
       <c r="N19">
-        <v>207.38564401741</v>
+        <v>623.5151979999999</v>
       </c>
       <c r="O19">
-        <v>0.3136266322583538</v>
+        <v>0.2964724550563789</v>
       </c>
       <c r="P19">
-        <v>0.3136266322583538</v>
+        <v>0.2964724550563789</v>
       </c>
       <c r="Q19">
-        <v>1306.775284828739</v>
+        <v>2075.423889570561</v>
       </c>
       <c r="R19">
-        <v>1306.775284828739</v>
+        <v>18678.81500613505</v>
       </c>
       <c r="S19">
-        <v>0.01389225550331077</v>
+        <v>0.01964513614964272</v>
       </c>
       <c r="T19">
-        <v>0.01389225550331077</v>
+        <v>0.01964513614964272</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.30118488201158</v>
+        <v>9.985757666666666</v>
       </c>
       <c r="H20">
-        <v>6.30118488201158</v>
+        <v>29.957273</v>
       </c>
       <c r="I20">
-        <v>0.04429552236452563</v>
+        <v>0.06626293881469322</v>
       </c>
       <c r="J20">
-        <v>0.04429552236452563</v>
+        <v>0.06626293881469324</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>114.998883476107</v>
+        <v>145.4707516666666</v>
       </c>
       <c r="N20">
-        <v>114.998883476107</v>
+        <v>436.412255</v>
       </c>
       <c r="O20">
-        <v>0.1739113269337703</v>
+        <v>0.2075077128377238</v>
       </c>
       <c r="P20">
-        <v>0.1739113269337703</v>
+        <v>0.2075077128377237</v>
       </c>
       <c r="Q20">
-        <v>724.6292260078567</v>
+        <v>1452.635673731179</v>
       </c>
       <c r="R20">
-        <v>724.6292260078567</v>
+        <v>13073.72106358061</v>
       </c>
       <c r="S20">
-        <v>0.007703493071639149</v>
+        <v>0.01375007087934302</v>
       </c>
       <c r="T20">
-        <v>0.007703493071639149</v>
+        <v>0.01375007087934302</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.30118488201158</v>
+        <v>9.985757666666666</v>
       </c>
       <c r="H21">
-        <v>6.30118488201158</v>
+        <v>29.957273</v>
       </c>
       <c r="I21">
-        <v>0.04429552236452563</v>
+        <v>0.06626293881469322</v>
       </c>
       <c r="J21">
-        <v>0.04429552236452563</v>
+        <v>0.06626293881469324</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>90.83797678518791</v>
+        <v>97.73455433333334</v>
       </c>
       <c r="N21">
-        <v>90.83797678518791</v>
+        <v>293.203663</v>
       </c>
       <c r="O21">
-        <v>0.1373730996438179</v>
+        <v>0.139414099415638</v>
       </c>
       <c r="P21">
-        <v>0.1373730996438179</v>
+        <v>0.1394140994156379</v>
       </c>
       <c r="Q21">
-        <v>572.3868860313449</v>
+        <v>975.9535752323332</v>
       </c>
       <c r="R21">
-        <v>572.3868860313449</v>
+        <v>8783.582177090999</v>
       </c>
       <c r="S21">
-        <v>0.006085013207556943</v>
+        <v>0.009237987939483976</v>
       </c>
       <c r="T21">
-        <v>0.006085013207556943</v>
+        <v>0.009237987939483976</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>20.0291550712429</v>
+        <v>22.24264533333333</v>
       </c>
       <c r="H22">
-        <v>20.0291550712429</v>
+        <v>66.727936</v>
       </c>
       <c r="I22">
-        <v>0.1407992152291146</v>
+        <v>0.1475965165587257</v>
       </c>
       <c r="J22">
-        <v>0.1407992152291146</v>
+        <v>0.1475965165587257</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>21.2269480458689</v>
+        <v>22.865525</v>
       </c>
       <c r="N22">
-        <v>21.2269480458689</v>
+        <v>68.596575</v>
       </c>
       <c r="O22">
-        <v>0.03210123950619275</v>
+        <v>0.03261667889402277</v>
       </c>
       <c r="P22">
-        <v>0.03210123950619275</v>
+        <v>0.03261667889402277</v>
       </c>
       <c r="Q22">
-        <v>425.1578340999247</v>
+        <v>508.5897629354667</v>
       </c>
       <c r="R22">
-        <v>425.1578340999247</v>
+        <v>4577.3078664192</v>
       </c>
       <c r="S22">
-        <v>0.004519829330353792</v>
+        <v>0.004814108186472269</v>
       </c>
       <c r="T22">
-        <v>0.004519829330353792</v>
+        <v>0.004814108186472271</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>20.0291550712429</v>
+        <v>22.24264533333333</v>
       </c>
       <c r="H23">
-        <v>20.0291550712429</v>
+        <v>66.727936</v>
       </c>
       <c r="I23">
-        <v>0.1407992152291146</v>
+        <v>0.1475965165587257</v>
       </c>
       <c r="J23">
-        <v>0.1407992152291146</v>
+        <v>0.1475965165587257</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>226.800654288099</v>
+        <v>227.1285753333333</v>
       </c>
       <c r="N23">
-        <v>226.800654288099</v>
+        <v>681.385726</v>
       </c>
       <c r="O23">
-        <v>0.3429877016578652</v>
+        <v>0.3239890537962366</v>
       </c>
       <c r="P23">
-        <v>0.3429877016578652</v>
+        <v>0.3239890537962366</v>
       </c>
       <c r="Q23">
-        <v>4542.625474995686</v>
+        <v>5051.940346204615</v>
       </c>
       <c r="R23">
-        <v>4542.625474995686</v>
+        <v>45467.46311584154</v>
       </c>
       <c r="S23">
-        <v>0.04829239922666512</v>
+        <v>0.0478196557434821</v>
       </c>
       <c r="T23">
-        <v>0.04829239922666512</v>
+        <v>0.04781965574348211</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>20.0291550712429</v>
+        <v>22.24264533333333</v>
       </c>
       <c r="H24">
-        <v>20.0291550712429</v>
+        <v>66.727936</v>
       </c>
       <c r="I24">
-        <v>0.1407992152291146</v>
+        <v>0.1475965165587257</v>
       </c>
       <c r="J24">
-        <v>0.1407992152291146</v>
+        <v>0.1475965165587257</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>207.38564401741</v>
+        <v>207.8383993333333</v>
       </c>
       <c r="N24">
-        <v>207.38564401741</v>
+        <v>623.5151979999999</v>
       </c>
       <c r="O24">
-        <v>0.3136266322583538</v>
+        <v>0.2964724550563789</v>
       </c>
       <c r="P24">
-        <v>0.3136266322583538</v>
+        <v>0.2964724550563789</v>
       </c>
       <c r="Q24">
-        <v>4153.759223574282</v>
+        <v>4622.875803019036</v>
       </c>
       <c r="R24">
-        <v>4153.759223574282</v>
+        <v>41605.88222717132</v>
       </c>
       <c r="S24">
-        <v>0.04415838369692635</v>
+        <v>0.04375830162193488</v>
       </c>
       <c r="T24">
-        <v>0.04415838369692635</v>
+        <v>0.04375830162193489</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>20.0291550712429</v>
+        <v>22.24264533333333</v>
       </c>
       <c r="H25">
-        <v>20.0291550712429</v>
+        <v>66.727936</v>
       </c>
       <c r="I25">
-        <v>0.1407992152291146</v>
+        <v>0.1475965165587257</v>
       </c>
       <c r="J25">
-        <v>0.1407992152291146</v>
+        <v>0.1475965165587257</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>114.998883476107</v>
+        <v>145.4707516666666</v>
       </c>
       <c r="N25">
-        <v>114.998883476107</v>
+        <v>436.412255</v>
       </c>
       <c r="O25">
-        <v>0.1739113269337703</v>
+        <v>0.2075077128377238</v>
       </c>
       <c r="P25">
-        <v>0.1739113269337703</v>
+        <v>0.2075077128377237</v>
       </c>
       <c r="Q25">
-        <v>2303.33047016274</v>
+        <v>3235.654335695075</v>
       </c>
       <c r="R25">
-        <v>2303.33047016274</v>
+        <v>29120.88902125568</v>
       </c>
       <c r="S25">
-        <v>0.02448657835172884</v>
+        <v>0.03062741557391638</v>
       </c>
       <c r="T25">
-        <v>0.02448657835172884</v>
+        <v>0.03062741557391639</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>20.0291550712429</v>
+        <v>22.24264533333333</v>
       </c>
       <c r="H26">
-        <v>20.0291550712429</v>
+        <v>66.727936</v>
       </c>
       <c r="I26">
-        <v>0.1407992152291146</v>
+        <v>0.1475965165587257</v>
       </c>
       <c r="J26">
-        <v>0.1407992152291146</v>
+        <v>0.1475965165587257</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>90.83797678518791</v>
+        <v>97.73455433333334</v>
       </c>
       <c r="N26">
-        <v>90.83797678518791</v>
+        <v>293.203663</v>
       </c>
       <c r="O26">
-        <v>0.1373730996438179</v>
+        <v>0.139414099415638</v>
       </c>
       <c r="P26">
-        <v>0.1373730996438179</v>
+        <v>0.1394140994156379</v>
       </c>
       <c r="Q26">
-        <v>1819.407923388491</v>
+        <v>2173.875028847729</v>
       </c>
       <c r="R26">
-        <v>1819.407923388491</v>
+        <v>19564.87525962957</v>
       </c>
       <c r="S26">
-        <v>0.01934202462344053</v>
+        <v>0.02057703543292003</v>
       </c>
       <c r="T26">
-        <v>0.01934202462344053</v>
+        <v>0.02057703543292004</v>
       </c>
     </row>
   </sheetData>
